--- a/cg/apps/invoice/templates/KTH_pool_invoice.xlsx
+++ b/cg/apps/invoice/templates/KTH_pool_invoice.xlsx
@@ -311,6 +311,9 @@
     <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -323,9 +326,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,7 +537,7 @@
   <dimension ref="A1:Z3315"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -550,10 +550,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
@@ -586,10 +586,10 @@
       <c r="Z1" s="7"/>
     </row>
     <row r="2" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
@@ -1243,10 +1243,10 @@
       <c r="E23" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="34" t="s">
+      <c r="G23" s="29" t="s">
         <v>30</v>
       </c>
       <c r="H23" s="7"/>
@@ -35606,10 +35606,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -35622,10 +35622,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">

--- a/cg/apps/invoice/templates/KTH_pool_invoice.xlsx
+++ b/cg/apps/invoice/templates/KTH_pool_invoice.xlsx
@@ -76,9 +76,6 @@
     <t>Telefon</t>
   </si>
   <si>
-    <t>08-5248 1545</t>
-  </si>
-  <si>
     <t>Till</t>
   </si>
   <si>
@@ -113,6 +110,9 @@
   </si>
   <si>
     <t>Pris</t>
+  </si>
+  <si>
+    <t>073-338 63 41</t>
   </si>
 </sst>
 </file>
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z3315"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -839,7 +839,7 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -895,7 +895,7 @@
     </row>
     <row r="12" spans="1:26" ht="22.5" customHeight="1">
       <c r="A12" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -989,7 +989,7 @@
     </row>
     <row r="15" spans="1:26" ht="22.5" customHeight="1">
       <c r="A15" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
@@ -1021,7 +1021,7 @@
     </row>
     <row r="16" spans="1:26" ht="22.5" customHeight="1">
       <c r="A16" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
@@ -1053,7 +1053,7 @@
     </row>
     <row r="17" spans="1:26" ht="22.5" customHeight="1">
       <c r="A17" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
@@ -1113,7 +1113,7 @@
     </row>
     <row r="19" spans="1:26" ht="22.5" customHeight="1">
       <c r="A19" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="20" spans="1:26" ht="22.5" customHeight="1">
       <c r="A20" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
@@ -1231,23 +1231,23 @@
     </row>
     <row r="23" spans="1:26" ht="22.5" customHeight="1">
       <c r="A23" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="E23" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="F23" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="G23" s="29" t="s">
         <v>29</v>
-      </c>
-      <c r="G23" s="29" t="s">
-        <v>30</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>

--- a/cg/apps/invoice/templates/KTH_pool_invoice.xlsx
+++ b/cg/apps/invoice/templates/KTH_pool_invoice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10107"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/cg/apps/invoice/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christian/Documents/clinicalGenomics/cg/cg/apps/invoice/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF22C2B9-015D-694F-B1BC-3E058D3062A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EB10FB-24AD-0744-B755-454C30FA5660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,13 +112,13 @@
     <t>Pris</t>
   </si>
   <si>
-    <t>Anna Gellerbring</t>
+    <t>Anna Zetterlund</t>
   </si>
   <si>
-    <t>08-524 860 53</t>
+    <t>anna.zetterlund@scilifelab.se</t>
   </si>
   <si>
-    <t>anna.gellerbring@scilifelab.se</t>
+    <t>(+46) 701523463</t>
   </si>
 </sst>
 </file>
@@ -200,7 +200,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -248,11 +248,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -340,12 +339,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -562,7 +559,7 @@
   <dimension ref="A1:Z3315"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C8" sqref="C8:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -799,7 +796,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="33" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="5"/>
@@ -831,8 +828,8 @@
         <v>14</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="33" t="s">
-        <v>30</v>
+      <c r="C9" s="34" t="s">
+        <v>29</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -863,8 +860,8 @@
         <v>15</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>29</v>
+      <c r="C10" s="33" t="s">
+        <v>30</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -35600,9 +35597,6 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
